--- a/data/america-do-sul/copa-libertadores/2022.xlsx
+++ b/data/america-do-sul/copa-libertadores/2022.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/MiclPtFa-UofJiKP6.png</t>
+          <t>https://static.flashscore.com/res/image/data/MiclPtFa-YF2zL4v9.png</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -685,10 +685,22 @@
       <c r="G4" t="n">
         <v>2</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ostojich E. (Uru)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Allianz Parque (São Paulo)</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>43713</v>
+      </c>
+      <c r="K4" t="n">
+        <v>40590</v>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>06/09/2022</t>
@@ -724,7 +736,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/MiclPtFa-UofJiKP6.png</t>
+          <t>https://static.flashscore.com/res/image/data/MiclPtFa-YF2zL4v9.png</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -812,7 +824,11 @@
         <v>0</v>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Ligga Arena (Curitiba)</t>
+        </is>
+      </c>
       <c r="J6" t="n">
         <v>42372</v>
       </c>
@@ -1008,7 +1024,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/MiclPtFa-UofJiKP6.png</t>
+          <t>https://static.flashscore.com/res/image/data/MiclPtFa-YF2zL4v9.png</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1017,11 +1033,7 @@
       <c r="G9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Aquino E. (Par)</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
           <t>Estadio Mario Alberto Kempes (Córdoba)</t>
@@ -1278,7 +1290,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/MiclPtFa-UofJiKP6.png</t>
+          <t>https://static.flashscore.com/res/image/data/MiclPtFa-YF2zL4v9.png</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1505,10 +1517,22 @@
       <c r="G16" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>de Vivar M. D. (Par)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Maracanã (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>78838</v>
+      </c>
+      <c r="K16" t="n">
+        <v>61871</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>06/07/2022</t>
@@ -1554,7 +1578,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/MiclPtFa-UofJiKP6.png</t>
+          <t>https://static.flashscore.com/res/image/data/MiclPtFa-YF2zL4v9.png</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1563,10 +1587,22 @@
       <c r="G17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Tobar Vargas R. (Chi)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Estádio Monumental (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>84567</v>
+      </c>
+      <c r="K17" t="n">
+        <v>59669</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>06/07/2022</t>
@@ -1833,9 +1869,19 @@
       <c r="G21" t="n">
         <v>1</v>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Cunha A. (Uru)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Estadio Tigo La Huerta (Assunção)</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>10100</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
@@ -1961,9 +2007,19 @@
       <c r="G23" t="n">
         <v>1</v>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Matonte Cabrera A. M. (Uru)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Castelão (Fortaleza)</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>60326</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
@@ -2019,9 +2075,19 @@
       <c r="G24" t="n">
         <v>1</v>
       </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Valenzuela J. (Ven)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Estádio Manuel Murillo Toro (Ibagué)</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>28100</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
@@ -2058,7 +2124,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/MiclPtFa-UofJiKP6.png</t>
+          <t>https://static.flashscore.com/res/image/data/MiclPtFa-YF2zL4v9.png</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2077,9 +2143,19 @@
       <c r="G25" t="n">
         <v>0</v>
       </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Raphael Claus (Bra)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Estadio José Amalfitani (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>49540</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
@@ -2135,9 +2211,19 @@
       <c r="G26" t="n">
         <v>3</v>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Roldan W. (Col)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Estádio General Pablo Rojas (Assunção)</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>45000</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
@@ -2193,9 +2279,19 @@
       <c r="G27" t="n">
         <v>1</v>
       </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Wilton Sampaio (Bra)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Estadio Mario Alberto Kempes (Córdoba)</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>57000</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
@@ -2251,9 +2347,19 @@
       <c r="G28" t="n">
         <v>1</v>
       </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Herrera A. (Ven)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Ligga Arena (Curitiba)</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>42372</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
@@ -2309,7 +2415,11 @@
       <c r="G29" t="n">
         <v>0</v>
       </c>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Tobar Vargas R. (Chi)</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
           <t>Neo Química Arena (São Paulo)</t>
@@ -2441,9 +2551,19 @@
       <c r="G31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Maza P. (Chi)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Estadio Alberto J. Armando (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>57200</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
@@ -2499,9 +2619,19 @@
       <c r="G32" t="n">
         <v>1</v>
       </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Argote J. (Ven)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Neo Química Arena (São Paulo)</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>49205</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
@@ -2559,7 +2689,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Lamolina N. (Arg)</t>
+          <t xml:space="preserve"> (Arg)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2693,22 +2823,10 @@
       <c r="G35" t="n">
         <v>2</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Loustau P. (Arg)</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Mineirão (Belo Horizonte)</t>
-        </is>
-      </c>
-      <c r="J35" t="n">
-        <v>61927</v>
-      </c>
-      <c r="K35" t="n">
-        <v>34339</v>
-      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>25/05/2022</t>
@@ -2831,9 +2949,19 @@
       <c r="G37" t="n">
         <v>0</v>
       </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Gonzalez L. (Uru)</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Estádio Banco Guayaquil (Quito)</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>12000</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
@@ -2889,9 +3017,19 @@
       <c r="G38" t="n">
         <v>1</v>
       </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Anderson Daronco (Bra)</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Campeón del Siglo (Montevidéu)</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>40000</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
@@ -3083,9 +3221,19 @@
       <c r="G41" t="n">
         <v>0</v>
       </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Ortega C. (Col)</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Estádio George Capwell (Guayaquil)</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>40020</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
@@ -3143,7 +3291,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Herrera A. (Ven)</t>
+          <t xml:space="preserve"> (Ven)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3209,7 +3357,11 @@
       <c r="G43" t="n">
         <v>1</v>
       </c>
-      <c r="H43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Ortega K. (Per)</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr">
         <is>
           <t>Allianz Parque (São Paulo)</t>
@@ -3254,7 +3406,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-dAJb3Ws0.png</t>
+          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-nRWWeW7h.png</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3273,9 +3425,19 @@
       <c r="G44" t="n">
         <v>1</v>
       </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Vargas G. (Bol)</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Estádio San Carlos de Apoquindo (Santiago)</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>14768</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
@@ -3331,7 +3493,11 @@
       <c r="G45" t="n">
         <v>0</v>
       </c>
-      <c r="H45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Roldan W. (Col)</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>Gran Parque Central (Montevidéu)</t>
@@ -3376,7 +3542,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/MiclPtFa-UofJiKP6.png</t>
+          <t>https://static.flashscore.com/res/image/data/MiclPtFa-YF2zL4v9.png</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3463,19 +3629,9 @@
       <c r="G47" t="n">
         <v>0</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Herrera A. (Ven)</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Estádio Deportivo Cáli (Palmira)</t>
-        </is>
-      </c>
-      <c r="J47" t="n">
-        <v>42000</v>
-      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
@@ -3669,7 +3825,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Congo F. (Ecu)</t>
+          <t xml:space="preserve"> (Ecu)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3735,9 +3891,19 @@
       <c r="G51" t="n">
         <v>1</v>
       </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Roldan W. (Col)</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Estadio Brigadier General Estanislao López (Santa Fe)</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>28251</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
@@ -3931,7 +4097,9 @@
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>42372</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
@@ -3978,7 +4146,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/MiclPtFa-UofJiKP6.png</t>
+          <t>https://static.flashscore.com/res/image/data/MiclPtFa-YF2zL4v9.png</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -3987,10 +4155,22 @@
       <c r="G55" t="n">
         <v>3</v>
       </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Maza P. (Chi)</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Gran Parque Central (Montevidéu)</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>34000</v>
+      </c>
+      <c r="K55" t="n">
+        <v>22075</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>18/05/2022</t>
@@ -4172,7 +4352,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-dAJb3Ws0.png</t>
+          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-nRWWeW7h.png</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -4181,7 +4361,11 @@
       <c r="G58" t="n">
         <v>0</v>
       </c>
-      <c r="H58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Ospina J. (Col)</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr">
         <is>
           <t>Maracanã (Rio de Janeiro)</t>
@@ -4383,7 +4567,9 @@
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>40000</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
@@ -4439,9 +4625,19 @@
       <c r="G62" t="n">
         <v>1</v>
       </c>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Benitez J. (Par)</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Estádio Nabi Abi Chedid (Bragança Paulista)</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>15010</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
@@ -4497,9 +4693,19 @@
       <c r="G63" t="n">
         <v>1</v>
       </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Betancur Gutierrez C. A. (Col)</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Nacional de Lima (Lima)</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>43086</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
@@ -4546,7 +4752,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/MiclPtFa-UofJiKP6.png</t>
+          <t>https://static.flashscore.com/res/image/data/MiclPtFa-YF2zL4v9.png</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -4623,8 +4829,16 @@
       <c r="G65" t="n">
         <v>1</v>
       </c>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Ostojich E. (Uru)</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Castelão (Fortaleza)</t>
+        </is>
+      </c>
       <c r="J65" t="n">
         <v>60326</v>
       </c>
@@ -4674,7 +4888,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-dAJb3Ws0.png</t>
+          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-nRWWeW7h.png</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -4683,9 +4897,19 @@
       <c r="G66" t="n">
         <v>1</v>
       </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Rojas A. (Col)</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Estádio Alberto Gallardo (Lima)</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>11600</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
@@ -4741,9 +4965,19 @@
       <c r="G67" t="n">
         <v>0</v>
       </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Loustau P. (Arg)</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Estádio Manuel Murillo Toro (Ibagué)</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>28100</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
@@ -5073,9 +5307,19 @@
       <c r="G72" t="n">
         <v>2</v>
       </c>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Aquino E. (Par)</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Estadio Mario Alberto Kempes (Córdoba)</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>57000</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
@@ -5199,19 +5443,9 @@
       <c r="G74" t="n">
         <v>0</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Roldan W. (Col)</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>Estádio Jorge Luis Hirschi (La Plata)</t>
-        </is>
-      </c>
-      <c r="J74" t="n">
-        <v>32530</v>
-      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
@@ -5403,7 +5637,11 @@
       <c r="G77" t="n">
         <v>4</v>
       </c>
-      <c r="H77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Echavarria P. (Arg)</t>
+        </is>
+      </c>
       <c r="I77" t="inlineStr">
         <is>
           <t>Estadio Polideportivo de Pueblo Nuevo (San Cristóbal)</t>
@@ -5467,9 +5705,19 @@
       <c r="G78" t="n">
         <v>0</v>
       </c>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Menendez A. (Per)</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Estadio Hernando Siles (La Paz)</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>41143</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
@@ -5525,19 +5773,9 @@
       <c r="G79" t="n">
         <v>2</v>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Aragon A. (Ecu)</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Estadio Hernando Siles (La Paz)</t>
-        </is>
-      </c>
-      <c r="J79" t="n">
-        <v>41143</v>
-      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
@@ -5593,16 +5831,8 @@
       <c r="G80" t="n">
         <v>0</v>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Valenzuela J. (Ven)</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Estádio Manuel Ferreira (Assunção)</t>
-        </is>
-      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>20000</v>
       </c>
@@ -5642,7 +5872,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-dAJb3Ws0.png</t>
+          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-nRWWeW7h.png</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -5917,19 +6147,9 @@
       <c r="G85" t="n">
         <v>3</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Loustau P. (Arg)</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>Estádio George Capwell (Guayaquil)</t>
-        </is>
-      </c>
-      <c r="J85" t="n">
-        <v>40020</v>
-      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
@@ -5985,10 +6205,22 @@
       <c r="G86" t="n">
         <v>3</v>
       </c>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (Uru)</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Mineirão (Belo Horizonte)</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>61927</v>
+      </c>
+      <c r="K86" t="n">
+        <v>4651</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>27/04/2022</t>
@@ -6043,11 +6275,7 @@
       <c r="G87" t="n">
         <v>1</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Betancur Gutierrez C. A. (Col)</t>
-        </is>
-      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
           <t>Castelão (Fortaleza)</t>
@@ -6185,8 +6413,12 @@
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K89" t="n">
+        <v>6980</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>26/04/2022</t>
@@ -6241,16 +6473,8 @@
       <c r="G90" t="n">
         <v>0</v>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>de Vivar M. D. (Par)</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>Estadio Mario Alberto Kempes (Córdoba)</t>
-        </is>
-      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
         <v>57000</v>
       </c>
@@ -6311,8 +6535,16 @@
       <c r="G91" t="n">
         <v>0</v>
       </c>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Ortega K. (Per)</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Estádio Jorge Luis Hirschi (La Plata)</t>
+        </is>
+      </c>
       <c r="J91" t="n">
         <v>32530</v>
       </c>
@@ -6373,19 +6605,9 @@
       <c r="G92" t="n">
         <v>2</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Gamboa N. (Chi)</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>Estádio Olímpico Pátria (Sucre)</t>
-        </is>
-      </c>
-      <c r="J92" t="n">
-        <v>30700</v>
-      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
@@ -6441,19 +6663,9 @@
       <c r="G93" t="n">
         <v>0</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Tejera G. (Uru)</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>Estadio Tigo La Huerta (Assunção)</t>
-        </is>
-      </c>
-      <c r="J93" t="n">
-        <v>10100</v>
-      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
@@ -6490,7 +6702,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/MiclPtFa-UofJiKP6.png</t>
+          <t>https://static.flashscore.com/res/image/data/MiclPtFa-YF2zL4v9.png</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -6509,7 +6721,11 @@
       <c r="G94" t="n">
         <v>2</v>
       </c>
-      <c r="H94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Aquino E. (Par)</t>
+        </is>
+      </c>
       <c r="I94" t="inlineStr">
         <is>
           <t>Estadio José Amalfitani (Buenos Aires)</t>
@@ -6575,9 +6791,19 @@
       <c r="G95" t="n">
         <v>1</v>
       </c>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Hinestroza Romana J. A. (Col)</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Estádio George Capwell (Guayaquil)</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>40020</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
@@ -6614,7 +6840,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/MiclPtFa-UofJiKP6.png</t>
+          <t>https://static.flashscore.com/res/image/data/MiclPtFa-YF2zL4v9.png</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -6691,19 +6917,9 @@
       <c r="G97" t="n">
         <v>0</v>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Herrera D. (Arg)</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>Ligga Arena (Curitiba)</t>
-        </is>
-      </c>
-      <c r="J97" t="n">
-        <v>42372</v>
-      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
         <v>21144</v>
       </c>
@@ -6962,7 +7178,9 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>22339</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>13/04/2022</t>
@@ -7017,16 +7235,8 @@
       <c r="G102" t="n">
         <v>0</v>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Matonte Cabrera A. M. (Uru)</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>Estádio Monumental (Buenos Aires)</t>
-        </is>
-      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
         <v>84567</v>
       </c>
@@ -7155,9 +7365,19 @@
       <c r="G104" t="n">
         <v>1</v>
       </c>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Tello F. (Arg)</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Estadio Defensores del Chaco (Assunção)</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>44164</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
@@ -7281,9 +7501,19 @@
       <c r="G106" t="n">
         <v>1</v>
       </c>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Lopez D. (Par)</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Allianz Parque (São Paulo)</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>43713</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
@@ -7408,8 +7638,14 @@
         <v>0</v>
       </c>
       <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Estadio Alberto J. Armando (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
+        <v>57200</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
@@ -7514,7 +7750,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-dAJb3Ws0.png</t>
+          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-nRWWeW7h.png</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -7533,19 +7769,9 @@
       <c r="G110" t="n">
         <v>1</v>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Gonzalez L. (Uru)</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>Estádio San Carlos de Apoquindo (Santiago)</t>
-        </is>
-      </c>
-      <c r="J110" t="n">
-        <v>14768</v>
-      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
@@ -7601,9 +7827,19 @@
       <c r="G111" t="n">
         <v>1</v>
       </c>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Gamboa N. (Chi)</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Estadio Hernando Siles (La Paz)</t>
+        </is>
+      </c>
+      <c r="J111" t="n">
+        <v>41143</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
@@ -7650,7 +7886,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/MiclPtFa-UofJiKP6.png</t>
+          <t>https://static.flashscore.com/res/image/data/MiclPtFa-YF2zL4v9.png</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -7729,19 +7965,9 @@
       <c r="G113" t="n">
         <v>2</v>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Cunha A. (Uru)</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>Castelão (Fortaleza)</t>
-        </is>
-      </c>
-      <c r="J113" t="n">
-        <v>60326</v>
-      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
         <v>50429</v>
       </c>
@@ -7925,9 +8151,19 @@
       <c r="G116" t="n">
         <v>4</v>
       </c>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Herrera D. (Arg)</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Estadio Polideportivo de Pueblo Nuevo (San Cristóbal)</t>
+        </is>
+      </c>
+      <c r="J116" t="n">
+        <v>38755</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
@@ -7985,7 +8221,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Herrera A. (Ven)</t>
+          <t xml:space="preserve"> (Ven)</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8053,7 +8289,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Arg)</t>
+          <t>Rapallini F. (Arg)</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8120,8 +8356,14 @@
         <v>0</v>
       </c>
       <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Estádio Nabi Abi Chedid (Bragança Paulista)</t>
+        </is>
+      </c>
+      <c r="J119" t="n">
+        <v>15010</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
@@ -8168,7 +8410,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-dAJb3Ws0.png</t>
+          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-nRWWeW7h.png</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -8177,9 +8419,19 @@
       <c r="G120" t="n">
         <v>0</v>
       </c>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Tejera G. (Uru)</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Estadio Mario Alberto Kempes (Córdoba)</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
+        <v>57000</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
@@ -8237,7 +8489,9 @@
       </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>11600</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
@@ -8487,9 +8741,19 @@
       <c r="G125" t="n">
         <v>1</v>
       </c>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Wilton Sampaio (Bra)</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Estadio Brigadier General Estanislao López (Santa Fe)</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>28251</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
@@ -8613,16 +8877,8 @@
       <c r="G127" t="n">
         <v>1</v>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Wilton Sampaio (Bra)</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>Estadio Hernando Siles (La Paz)</t>
-        </is>
-      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
         <v>41143</v>
       </c>
@@ -8683,9 +8939,19 @@
       <c r="G128" t="n">
         <v>0</v>
       </c>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Tobar Vargas R. (Chi)</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Estadio Defensores del Chaco (Assunção)</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
+        <v>44164</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
@@ -8745,9 +9011,19 @@
       <c r="G129" t="n">
         <v>0</v>
       </c>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Valenzuela J. (Ven)</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Estádio Jorge Luis Hirschi (La Plata)</t>
+        </is>
+      </c>
+      <c r="J129" t="n">
+        <v>32530</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
@@ -8933,11 +9209,7 @@
       <c r="G132" t="n">
         <v>1</v>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Tello F. (Arg)</t>
-        </is>
-      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
           <t>Estádio Olímpico Nilton Santos (Rio de Janeiro)</t>
@@ -9003,7 +9275,11 @@
       <c r="G133" t="n">
         <v>1</v>
       </c>
-      <c r="H133" t="inlineStr"/>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>B. Arleu (Bra)</t>
+        </is>
+      </c>
       <c r="I133" t="inlineStr">
         <is>
           <t>Estadio Sausalito (Viña del Mar)</t>
@@ -9139,7 +9415,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Arg)</t>
+          <t>Loustau P. (Arg)</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -9205,19 +9481,9 @@
       <c r="G136" t="n">
         <v>0</v>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Wilton Sampaio (Bra)</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>Estádio Jorge Luis Hirschi (La Plata)</t>
-        </is>
-      </c>
-      <c r="J136" t="n">
-        <v>32530</v>
-      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
@@ -9331,11 +9597,7 @@
       <c r="G138" t="n">
         <v>4</v>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Tello F. (Arg)</t>
-        </is>
-      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
           <t>Estadio Rogelio Livieres (Assunção)</t>
@@ -9471,19 +9733,9 @@
       <c r="G140" t="n">
         <v>0</v>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>Rapallini F. (Arg)</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>São Januário (Rio de Janeiro)</t>
-        </is>
-      </c>
-      <c r="J140" t="n">
-        <v>21880</v>
-      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
@@ -9539,9 +9791,19 @@
       <c r="G141" t="n">
         <v>0</v>
       </c>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Ospina J. (Col)</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Estadio Hernando Siles (La Paz)</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>41143</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
@@ -9597,14 +9859,10 @@
       <c r="G142" t="n">
         <v>0</v>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Vargas G. (Bol)</t>
-        </is>
-      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Estadio Monumental de Maturín (Maturín)</t>
+          <t xml:space="preserve"> (Maturín)</t>
         </is>
       </c>
       <c r="J142" t="n">
@@ -9665,9 +9923,19 @@
       <c r="G143" t="n">
         <v>1</v>
       </c>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Pitana N. (Arg)</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Estádio Manuel Ferreira (Assunção)</t>
+        </is>
+      </c>
+      <c r="J143" t="n">
+        <v>20000</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
@@ -9723,9 +9991,19 @@
       <c r="G144" t="n">
         <v>0</v>
       </c>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Ferreyra C. (Uru)</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Estadio Municipal de La Florida (Santiago)</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>12000</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
@@ -9781,19 +10059,9 @@
       <c r="G145" t="n">
         <v>0</v>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>Argote J. (Ven)</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>Estádio Banco Pichincha (Guayaquil)</t>
-        </is>
-      </c>
-      <c r="J145" t="n">
-        <v>59283</v>
-      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
@@ -9917,19 +10185,9 @@
       <c r="G147" t="n">
         <v>1</v>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>Maza P. (Chi)</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>Estadio Hernando Siles (La Paz)</t>
-        </is>
-      </c>
-      <c r="J147" t="n">
-        <v>41143</v>
-      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
@@ -9985,19 +10243,9 @@
       <c r="G148" t="n">
         <v>2</v>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>Herrera D. (Arg)</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>Estadio El Campín (Bogotá)</t>
-        </is>
-      </c>
-      <c r="J148" t="n">
-        <v>36343</v>
-      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
@@ -10053,19 +10301,9 @@
       <c r="G149" t="n">
         <v>0</v>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>B. Arleu (Bra)</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>Parque Cincuentenario Juan Prandi (Colonia del Sacramento)</t>
-        </is>
-      </c>
-      <c r="J149" t="n">
-        <v>3000</v>
-      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
@@ -10397,16 +10635,8 @@
       <c r="G154" t="n">
         <v>1</v>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Valenzuela J. (Ven)</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>Estadio Nacional (Lima)</t>
-        </is>
-      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
         <v>43086</v>
       </c>
@@ -10465,7 +10695,11 @@
       <c r="G155" t="n">
         <v>3</v>
       </c>
-      <c r="H155" t="inlineStr"/>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Aquino E. (Par)</t>
+        </is>
+      </c>
       <c r="I155" t="inlineStr">
         <is>
           <t>Estádio Agustín Tovar (Barinas)</t>
